--- a/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
+++ b/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Documents\GitHub\FISIDEVELOPS-G3\PROYECTOS\Proy_SSEL\Documentacion\3. Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>CATALOGO DE REQUISITOS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>N°</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Registro de subastador</t>
   </si>
   <si>
-    <t>RQ-001</t>
-  </si>
-  <si>
     <t>El sistema deberá almacenar la información de los participantes en la subasta</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Registro de producto</t>
   </si>
   <si>
-    <t>RQ-002</t>
-  </si>
-  <si>
     <t>El sistema deberá permitir registrar los productos a subastar</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Visualizar Subasta</t>
   </si>
   <si>
-    <t>RQ-003</t>
-  </si>
-  <si>
     <t>El sistema deberá mostrar los producto que se estab subastanado</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t>Evaluacion del articulo</t>
   </si>
   <si>
-    <t>RQ-004</t>
-  </si>
-  <si>
     <t>El sistema debera evaluar si el articulo cumple los requisitos para ser subastado</t>
   </si>
   <si>
@@ -102,9 +87,6 @@
     <t>Autenticar al Usuario</t>
   </si>
   <si>
-    <t>RQ-005</t>
-  </si>
-  <si>
     <t>El sistema debera permitir que el usuario se loguee para poder participar en una subasta</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>Apostar en una subasta</t>
   </si>
   <si>
-    <t>RQ-006</t>
-  </si>
-  <si>
     <t>El sistema debe permitir realizar apuestas en el tiempo de vigencia de la subasta</t>
   </si>
   <si>
@@ -126,9 +105,6 @@
     <t>Registrar Usuarios</t>
   </si>
   <si>
-    <t>RQ-007</t>
-  </si>
-  <si>
     <t>El sistema deberá almacenar el registro de los usuarios que deseen participar en la subasta</t>
   </si>
   <si>
@@ -138,35 +114,170 @@
     <t>Autenticar al subastador</t>
   </si>
   <si>
-    <t>RQ-008</t>
-  </si>
-  <si>
     <t>El sistema deberá permitir que el subastador se loguee para subastar su producto y establecer untiempo determinado</t>
   </si>
   <si>
     <t>Debido a que el subastador tiene que tener el control de cuando y a que hora empieza y terminala subasta</t>
+  </si>
+  <si>
+    <t>Concurrencia</t>
+  </si>
+  <si>
+    <t>No funcional</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>El sistema deberá estar disponible las 24 horas de los 360 días del año.</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Facilidad de uso</t>
+  </si>
+  <si>
+    <t>El sistema deberá tener una apariencia y diseño amigables e intuitivos para el usuario.</t>
+  </si>
+  <si>
+    <t>Debido a que se quiere el usuario rapidamente se familiarice con el sistema.</t>
+  </si>
+  <si>
+    <t>Flexibilidad</t>
+  </si>
+  <si>
+    <t>El sistema deberá tener  variedad de posibilidades con las que el usuario y el sistema pueden intercambiar información</t>
+  </si>
+  <si>
+    <t>Debido a que la subasta se realiza simultaneamente con varios usuarios</t>
+  </si>
+  <si>
+    <t>LISTA DE REQUISITOS</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir realizar varias subastas con varios usuarios simultaneamente.</t>
+  </si>
+  <si>
+    <t>Debido a que la subasta es un proceso que se realiza en muchos lugares y se cuenta con muchos postores.</t>
+  </si>
+  <si>
+    <t>Debido a que la subasta requiere que el proceso de subastar pueda realizarse en cualquier momento.</t>
+  </si>
+  <si>
+    <t>El sistema deberá tener un tiempo de respuesta máximo de 4 segundos para actualizar la cantidad ofrecida por el postor.</t>
+  </si>
+  <si>
+    <t>Debido a que la subasta requiere optimizar tiempos en el proceso de subastar.</t>
+  </si>
+  <si>
+    <t>El sistema deberá proteger la información de usuarios,  de cuentas bancarias de accesos no autorizados y divulgaciones.</t>
+  </si>
+  <si>
+    <t>Debido a que los datos tratados en el proceso de subastar son confidenciales.</t>
+  </si>
+  <si>
+    <t>RF-01</t>
+  </si>
+  <si>
+    <t>RF-02</t>
+  </si>
+  <si>
+    <t>RF-03</t>
+  </si>
+  <si>
+    <t>RF-04</t>
+  </si>
+  <si>
+    <t>RF-05</t>
+  </si>
+  <si>
+    <t>RF-06</t>
+  </si>
+  <si>
+    <t>RF-07</t>
+  </si>
+  <si>
+    <t>RF-08</t>
+  </si>
+  <si>
+    <t>RNF-09</t>
+  </si>
+  <si>
+    <t>RNF-10</t>
+  </si>
+  <si>
+    <t>RNF-11</t>
+  </si>
+  <si>
+    <t>RNF-12</t>
+  </si>
+  <si>
+    <t>RNF-13</t>
+  </si>
+  <si>
+    <t>RNF-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -174,16 +285,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,236 +638,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="66.28515625" customWidth="1"/>
-    <col min="5" max="5" width="84" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
+      <c r="E16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
+++ b/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Documents\GitHub\FISIDEVELOPS-G3\PROYECTOS\Proy_SSEL\Documentacion\3. Requisitos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
@@ -230,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -312,7 +307,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,10 +346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -373,6 +368,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3048000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>625927</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>976425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9552214" y="81643"/>
+          <a:ext cx="2952749" cy="1058068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -655,103 +699,58 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -760,19 +759,19 @@
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -783,19 +782,19 @@
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -806,19 +805,19 @@
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -829,19 +828,19 @@
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -852,19 +851,19 @@
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -875,65 +874,65 @@
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -944,19 +943,19 @@
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -967,22 +966,22 @@
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>34</v>
@@ -990,19 +989,19 @@
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1011,47 +1010,94 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
+++ b/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>N°</t>
   </si>
@@ -40,12 +45,6 @@
     <t>Registro de subastador</t>
   </si>
   <si>
-    <t>El sistema deberá almacenar la información de los participantes en la subasta</t>
-  </si>
-  <si>
-    <t>Debido a que se requiere tener un registro de los participantes en la subasta.</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -55,18 +54,12 @@
     <t>Registro de producto</t>
   </si>
   <si>
-    <t>El sistema deberá permitir registrar los productos a subastar</t>
-  </si>
-  <si>
     <t>Debido a que hay un producto por subastrar, se debe registrar las caracteristicas del producto</t>
   </si>
   <si>
     <t>Visualizar Subasta</t>
   </si>
   <si>
-    <t>El sistema deberá mostrar los producto que se estab subastanado</t>
-  </si>
-  <si>
     <t>Debido a que hay varios productos en subasta, se debe mostrar todos los productos que esta vigentes en la subasta</t>
   </si>
   <si>
@@ -100,9 +93,6 @@
     <t>Registrar Usuarios</t>
   </si>
   <si>
-    <t>El sistema deberá almacenar el registro de los usuarios que deseen participar en la subasta</t>
-  </si>
-  <si>
     <t>Debido a que cualquier usuario puede participar en cualquier subasta</t>
   </si>
   <si>
@@ -218,6 +208,39 @@
   </si>
   <si>
     <t>RNF-14</t>
+  </si>
+  <si>
+    <t>CASO DE USO</t>
+  </si>
+  <si>
+    <t>Apostar</t>
+  </si>
+  <si>
+    <t>Registrar en sistema</t>
+  </si>
+  <si>
+    <t>Subastar Producto</t>
+  </si>
+  <si>
+    <t>Autenticar</t>
+  </si>
+  <si>
+    <t>Visualizar subasta</t>
+  </si>
+  <si>
+    <t>El sistema deberá registrar el nombre, codigo subastador, item producto, categoria.</t>
+  </si>
+  <si>
+    <t>Debido a que se requiere tener un registro de los participantes que subastan su producto.</t>
+  </si>
+  <si>
+    <t>El sistema deberá registra el rnombre, dni, numero de cuenta, correo, direccion, ID de los usuarios que deseen participar en la subasta</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir registrar datos del productos (nombre, categoria, fecha inicio subasta, fecha de caducidad, precio base) a subastar</t>
+  </si>
+  <si>
+    <t>El sistema deberá mostrar los producto que se esta subastanado</t>
   </si>
 </sst>
 </file>
@@ -225,7 +248,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -272,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -304,12 +327,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -346,10 +395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -674,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -682,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -699,10 +757,10 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -711,7 +769,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
@@ -733,8 +791,11 @@
       <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -742,359 +803,380 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H5" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
+++ b/PROYECTOS/Proy_SSEL/Documentacion/3. Requisitos/SSEL-LR.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Documents\GitHub\FISIDEVELOPS-G3\PROYECTOS\Proy_SSEL\Documentacion\3. Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista de Requisitos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -398,11 +398,11 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -759,15 +759,15 @@
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -1019,7 +1019,7 @@
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1043,7 +1043,7 @@
       <c r="G14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1067,7 +1067,7 @@
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1091,7 +1091,7 @@
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1115,7 +1115,7 @@
       <c r="G17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1139,7 +1139,7 @@
       <c r="G18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
